--- a/data-raw/laycock.tea.xlsx
+++ b/data-raw/laycock.tea.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\rpack\agridat\data-done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7838C55-FF8F-4DAF-88FC-24EA11B2B643}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C634F23-D7FD-412F-A19C-3FF9008E32ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="22020" windowHeight="9648"/>
+    <workbookView xWindow="41985" yWindow="3975" windowWidth="11385" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="L1" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -560,9 +560,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -600,7 +600,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -706,7 +706,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -848,23 +848,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>30.3</v>
       </c>
@@ -878,7 +878,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>27.3</v>
       </c>
@@ -892,7 +892,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>26.5</v>
       </c>
@@ -906,7 +906,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>24.3</v>
       </c>
@@ -920,7 +920,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>36.6</v>
       </c>
@@ -934,7 +934,7 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>35.4</v>
       </c>
@@ -948,7 +948,7 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>36.200000000000003</v>
       </c>
@@ -962,7 +962,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>36.6</v>
       </c>
@@ -982,14 +982,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>28.5</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>32.700000000000003</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>31.7</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>26.7</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>25.8</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>25.1</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>28.1</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>30.6</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>45.1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>41.4</v>
       </c>
